--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2971799.997512497</v>
+        <v>2969256.188005415</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8574639.14092933</v>
+        <v>8574639.140929332</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>116.9725659584295</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015063</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>259.6326967715736</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032233</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015058</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2.875953774683174</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -801,10 +801,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>203.8804318482939</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015058</v>
       </c>
       <c r="V4" t="n">
-        <v>2.537230309537112</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015063</v>
+        <v>260.2363572824523</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>13.11342416039177</v>
+        <v>259.6326967715744</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,61 +908,61 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
+        <v>12.83417464571001</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>115.3066195468971</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>152.7676931992223</v>
+      </c>
+      <c r="T5" t="n">
+        <v>212.2897156032233</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="H5" t="n">
-        <v>263.7138800015061</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>212.2897156032232</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>263.7138800015061</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>77.09393081742142</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -987,10 +987,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1023,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>95.54934167208563</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1038,10 +1038,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>83.43224246993546</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>65.77030295285006</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1136,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>306.6372490738585</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54915978824951</v>
+        <v>11.54915978824949</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896856</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>219.1455308645228</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1221,16 +1221,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>143.2927632288614</v>
       </c>
       <c r="G9" t="n">
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>91.0626477515961</v>
+        <v>92.83909691614502</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115264</v>
+        <v>20.24979976115226</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.379115290174</v>
+        <v>134.3791152901738</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1297,19 +1297,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590396</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.8162497430994</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>47.21494718935018</v>
+        <v>101.5869591640952</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503846</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>107.4985065573611</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>20.43112068613158</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>39.52129633183167</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710087</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.33703994143001</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>26.05480806223768</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>217.405450327287</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>104.8913819999791</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2132,7 +2132,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>20.43112068613203</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>42.71572132711282</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2606,7 +2606,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457617</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>73.93222849083779</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>168.4805514670954</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>83.06560892428213</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3035,13 +3035,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722634</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784691</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>110.017717176686</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>28.75188085812055</v>
+        <v>121.8000472740352</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206845</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="39">
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>90.85912858529866</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187867</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>6.434538210426839</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4043,7 +4043,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="45">
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428212</v>
+        <v>42.71572132711285</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>788.477863438847</v>
+        <v>419.7330060626379</v>
       </c>
       <c r="C2" t="n">
-        <v>788.477863438847</v>
+        <v>419.7330060626379</v>
       </c>
       <c r="D2" t="n">
-        <v>522.1002068716689</v>
+        <v>419.7330060626379</v>
       </c>
       <c r="E2" t="n">
-        <v>522.1002068716689</v>
+        <v>419.7330060626379</v>
       </c>
       <c r="F2" t="n">
-        <v>403.9460998429522</v>
+        <v>412.7875053134344</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>399.8236925399899</v>
       </c>
       <c r="H2" t="n">
         <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.2826908791755</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.2640879052536</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.51749475159</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030597</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991319</v>
+        <v>704.5463761991306</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358402</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601763</v>
+        <v>1011.026904601761</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946875</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298155</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298155</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>419.7330060626379</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>419.7330060626379</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.855520006025</v>
+        <v>419.7330060626379</v>
       </c>
       <c r="Y2" t="n">
-        <v>1054.855520006025</v>
+        <v>419.7330060626379</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198.4551434940588</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="C3" t="n">
-        <v>24.00211421293179</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="D3" t="n">
-        <v>24.00211421293179</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="E3" t="n">
-        <v>24.00211421293179</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="F3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004804</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699346</v>
+        <v>95.78113116957454</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302313</v>
+        <v>242.5255548298711</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267552</v>
+        <v>433.1262439263947</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293602</v>
+        <v>648.3904695545975</v>
       </c>
       <c r="O3" t="n">
-        <v>909.46721075609</v>
+        <v>909.4672107560883</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789494</v>
+        <v>1026.524810789492</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>906.2192216098629</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>709.4101432413005</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>481.274297278114</v>
       </c>
       <c r="V3" t="n">
-        <v>1036.519636212815</v>
+        <v>481.274297278114</v>
       </c>
       <c r="W3" t="n">
-        <v>782.2822794846136</v>
+        <v>227.0369405499123</v>
       </c>
       <c r="X3" t="n">
-        <v>574.4307792790808</v>
+        <v>227.0369405499123</v>
       </c>
       <c r="Y3" t="n">
-        <v>366.6704805141268</v>
+        <v>21.09711040012046</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>337.1328744987772</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="C4" t="n">
-        <v>337.1328744987772</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="D4" t="n">
-        <v>337.1328744987772</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="E4" t="n">
-        <v>337.1328744987772</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2429270008668</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2429270008668</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287936</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726550998</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375323</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227033</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075528</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816803</v>
+        <v>1048.360858816801</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407061</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512175</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512175</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>452.8983006840399</v>
       </c>
       <c r="V4" t="n">
-        <v>1052.292661107503</v>
+        <v>452.8983006840399</v>
       </c>
       <c r="W4" t="n">
-        <v>785.9150045403246</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="X4" t="n">
-        <v>557.9254536423073</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="Y4" t="n">
-        <v>337.1328744987772</v>
+        <v>190.0332933280274</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>574.0438072739746</v>
+        <v>419.7330060626387</v>
       </c>
       <c r="C5" t="n">
-        <v>560.7979242836799</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="D5" t="n">
-        <v>560.7979242836799</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="E5" t="n">
-        <v>560.7979242836799</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="F5" t="n">
-        <v>553.8524235344764</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G5" t="n">
-        <v>287.4747669672984</v>
+        <v>137.5684432757742</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757742</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917585</v>
+        <v>49.2826908791767</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052549</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515912</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030609</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991319</v>
       </c>
       <c r="O5" t="n">
         <v>888.5149683358413</v>
@@ -4586,31 +4586,31 @@
         <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946886</v>
       </c>
       <c r="T5" t="n">
-        <v>840.4214638411526</v>
+        <v>686.1106626298166</v>
       </c>
       <c r="U5" t="n">
-        <v>840.4214638411526</v>
+        <v>686.1106626298166</v>
       </c>
       <c r="V5" t="n">
-        <v>840.4214638411526</v>
+        <v>686.1106626298166</v>
       </c>
       <c r="W5" t="n">
-        <v>574.0438072739746</v>
+        <v>686.1106626298166</v>
       </c>
       <c r="X5" t="n">
-        <v>574.0438072739746</v>
+        <v>686.1106626298166</v>
       </c>
       <c r="Y5" t="n">
-        <v>574.0438072739746</v>
+        <v>419.7330060626387</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>582.3653976835424</v>
+        <v>195.5501396812475</v>
       </c>
       <c r="C6" t="n">
-        <v>407.9123684024154</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D6" t="n">
-        <v>258.9779587411641</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>258.9779587411641</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
-        <v>258.9779587411641</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>121.5812722902313</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
         <v>21.09711040012049</v>
@@ -4647,49 +4647,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957468</v>
+        <v>95.78113116957456</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>242.5255548298711</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>503.6022960313621</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>713.6562631339671</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557301</v>
+        <v>909.4672107560895</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S6" t="n">
-        <v>958.3410334685643</v>
+        <v>906.219221609864</v>
       </c>
       <c r="T6" t="n">
-        <v>958.3410334685643</v>
+        <v>709.4101432413016</v>
       </c>
       <c r="U6" t="n">
-        <v>958.3410334685643</v>
+        <v>481.2742972781151</v>
       </c>
       <c r="V6" t="n">
-        <v>958.3410334685643</v>
+        <v>481.2742972781151</v>
       </c>
       <c r="W6" t="n">
-        <v>958.3410334685643</v>
+        <v>481.2742972781151</v>
       </c>
       <c r="X6" t="n">
-        <v>958.3410334685643</v>
+        <v>273.4227970725823</v>
       </c>
       <c r="Y6" t="n">
-        <v>750.5807347036105</v>
+        <v>273.4227970725823</v>
       </c>
     </row>
     <row r="7">
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>424.4249251342374</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C7" t="n">
-        <v>255.4887422063304</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D7" t="n">
-        <v>105.3721027939947</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E7" t="n">
         <v>21.09711040012049</v>
@@ -4726,49 +4726,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287944</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
         <v>316.7083726551007</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227044</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
         <v>918.469937207554</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816803</v>
+        <v>1048.360858816802</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>988.420870558701</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>988.420870558701</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>762.9518343167153</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>496.5741777495375</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="W7" t="n">
-        <v>1054.855520006025</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="X7" t="n">
-        <v>826.8659691080072</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="Y7" t="n">
-        <v>606.0733899644771</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1116.665619403878</v>
+        <v>373.8967903081299</v>
       </c>
       <c r="C8" t="n">
-        <v>1116.665619403878</v>
+        <v>373.8967903081299</v>
       </c>
       <c r="D8" t="n">
-        <v>758.3999207971278</v>
+        <v>373.8967903081299</v>
       </c>
       <c r="E8" t="n">
-        <v>372.6116681988836</v>
+        <v>373.8967903081299</v>
       </c>
       <c r="F8" t="n">
-        <v>62.87707317478409</v>
+        <v>366.9512895589264</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2112552068553</v>
+        <v>355.2854715909976</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2112552068553</v>
+        <v>51.21125520685582</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2112552068553</v>
+        <v>51.21125520685582</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467154</v>
+        <v>187.3702251467177</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607387</v>
+        <v>442.1757437607435</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045867</v>
+        <v>795.1862829045947</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995218</v>
+        <v>1219.64796299523</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209573</v>
+        <v>1655.591685209588</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940582</v>
+        <v>2053.905718940602</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550182</v>
+        <v>2359.356530550205</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661146</v>
+        <v>2540.564622661171</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342765</v>
+        <v>2560.562760342791</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342765</v>
+        <v>2560.562760342791</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342765</v>
+        <v>2351.810676439064</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342765</v>
+        <v>2098.229497964634</v>
       </c>
       <c r="V8" t="n">
-        <v>2229.499872999194</v>
+        <v>1876.870375879257</v>
       </c>
       <c r="W8" t="n">
-        <v>1876.73121772908</v>
+        <v>1524.101720609143</v>
       </c>
       <c r="X8" t="n">
-        <v>1503.265459468</v>
+        <v>1150.635962348063</v>
       </c>
       <c r="Y8" t="n">
-        <v>1503.265459468</v>
+        <v>760.4966303722517</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010591</v>
+        <v>929.5097208010859</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199321</v>
+        <v>755.0566915199589</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818586808</v>
+        <v>606.1222818587077</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532253</v>
+        <v>446.8848268532522</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801103</v>
+        <v>302.1446619756144</v>
       </c>
       <c r="G9" t="n">
-        <v>163.6480708762985</v>
+        <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993877</v>
+        <v>71.66559839993892</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2112552068553</v>
+        <v>51.21125520685582</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637177</v>
+        <v>238.3188829507239</v>
       </c>
       <c r="K9" t="n">
-        <v>559.9063389572684</v>
+        <v>422.9158793018237</v>
       </c>
       <c r="L9" t="n">
-        <v>854.4423223907481</v>
+        <v>1056.655162486664</v>
       </c>
       <c r="M9" t="n">
-        <v>1217.508790865048</v>
+        <v>1419.721630960967</v>
       </c>
       <c r="N9" t="n">
-        <v>1604.593193337615</v>
+        <v>1806.806033433537</v>
       </c>
       <c r="O9" t="n">
-        <v>1936.480003325002</v>
+        <v>2138.692843420927</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.34536178902</v>
+        <v>2421.055229888888</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342765</v>
+        <v>2536.272628442634</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342765</v>
+        <v>2560.562760342791</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.82628025168</v>
+        <v>2424.826280251707</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685329</v>
+        <v>2230.816477685355</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751558</v>
+        <v>2002.726321751585</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519815</v>
+        <v>1767.574213519842</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791614</v>
+        <v>1513.336856791641</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586081</v>
+        <v>1305.485356586108</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821127</v>
+        <v>1097.725057821154</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>981.7990111231043</v>
+        <v>476.1390772876028</v>
       </c>
       <c r="C10" t="n">
-        <v>812.8628281951974</v>
+        <v>307.202894359696</v>
       </c>
       <c r="D10" t="n">
-        <v>662.7461887828616</v>
+        <v>157.0862549473603</v>
       </c>
       <c r="E10" t="n">
-        <v>514.8330952004685</v>
+        <v>157.0862549473603</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9431477025581</v>
+        <v>157.0862549473603</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9560228422488</v>
+        <v>157.0862549473603</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2112552068553</v>
+        <v>157.0862549473603</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2112552068553</v>
+        <v>51.21125520685582</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380065</v>
+        <v>76.63468308380183</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676552</v>
+        <v>248.2500215676574</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368894</v>
+        <v>523.385004336893</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904</v>
+        <v>823.8653899904049</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101608</v>
+        <v>1122.635640101614</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931085</v>
+        <v>1382.582027931093</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616494</v>
+        <v>1581.490387616502</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477356</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="R10" t="n">
-        <v>1588.077279629528</v>
+        <v>1533.156055412623</v>
       </c>
       <c r="S10" t="n">
-        <v>1391.437026851361</v>
+        <v>1533.156055412623</v>
       </c>
       <c r="T10" t="n">
-        <v>1391.437026851361</v>
+        <v>1310.174753887028</v>
       </c>
       <c r="U10" t="n">
-        <v>1391.437026851361</v>
+        <v>1021.05638038167</v>
       </c>
       <c r="V10" t="n">
-        <v>1391.437026851361</v>
+        <v>766.371892175783</v>
       </c>
       <c r="W10" t="n">
-        <v>1391.437026851361</v>
+        <v>657.7875421178426</v>
       </c>
       <c r="X10" t="n">
-        <v>1163.447475953344</v>
+        <v>657.7875421178426</v>
       </c>
       <c r="Y10" t="n">
-        <v>1163.447475953344</v>
+        <v>657.7875421178426</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,49 +5027,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466574</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>493.2161050975141</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D13" t="n">
-        <v>343.0994656851783</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5273,16 +5273,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5294,7 +5294,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>580.8993044876706</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597637</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.846482147428</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.846482147428</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258108</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396419</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359458</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614405</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179104</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5510,16 +5510,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5528,10 +5528,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5543,10 +5543,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>417.9651836029403</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797189</v>
+        <v>913.2907898186992</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>913.2907898186992</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.793114229131</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468418</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963486</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5680,7 +5680,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5747,10 +5747,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075811</v>
@@ -5780,10 +5780,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
@@ -5932,28 +5932,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5987,25 +5987,25 @@
         <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
@@ -6014,22 +6014,22 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>251.5626541092265</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797189</v>
+        <v>746.8882603249853</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797189</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6218,40 +6218,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>119.2902967703784</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>545.3854261579756</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>397.4723325755825</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>250.5823850776722</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>250.5823850776722</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6424,10 +6424,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6458,10 +6458,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075802</v>
@@ -6473,10 +6473,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,28 +6540,28 @@
         <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6601,10 +6601,10 @@
         <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
         <v>261.0127623330919</v>
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,10 +6710,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694708</v>
@@ -6722,28 +6722,28 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,22 +6771,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797191</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6835,25 +6835,25 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6932,19 +6932,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,22 +7072,22 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694708</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7254,25 +7254,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452613</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718132</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
@@ -7375,7 +7375,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694708</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452613</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718132</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797189</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7640,55 +7640,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>119.2902967703784</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969303</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7783,25 +7783,25 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782958</v>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761162</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069086</v>
+        <v>2.051220519418308</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8067,10 +8067,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.262887399593836</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>92.05878169167784</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8137,7 +8137,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>106.7437663446515</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8152,7 +8152,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140413</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761162</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418308</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,19 +8301,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>71.18793141915893</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>26.13373767211385</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127223</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.6295957084432</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>264.4747475094903</v>
+        <v>35.68386670539007</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348557</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>1.27897692436818e-12</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>146.8157004124963</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>100.7734165143922</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>8.952838470577262e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>119.3662399606936</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>43.72409101823325</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>124.9899273367992</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>124.531099771515</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>66.36248435538607</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>57.2291039219418</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>65.54986409393022</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>57.22910392194183</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4047645948076</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>138.4949402405073</v>
+        <v>45.44677382459267</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>127.7255247667961</v>
       </c>
     </row>
     <row r="41">
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856552</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>210.9709121168614</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194174</v>
+        <v>97.57899151911101</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>754147.486828536</v>
+        <v>754147.4868285359</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>754147.4868285359</v>
+        <v>754147.486828536</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>759398.7757862133</v>
+        <v>759398.7757862135</v>
       </c>
     </row>
     <row r="5">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>736800.9871262149</v>
+        <v>736800.987126215</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>736800.9871262149</v>
+        <v>736800.987126215</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>736800.9871262149</v>
+        <v>736800.9871262148</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>736800.987126215</v>
+        <v>736800.9871262149</v>
       </c>
     </row>
     <row r="14">
@@ -26314,46 +26314,46 @@
         <v>697885.504384641</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.504384641</v>
       </c>
       <c r="E2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="F2" t="n">
         <v>686074.6097365054</v>
       </c>
-      <c r="F2" t="n">
-        <v>686074.6097365055</v>
-      </c>
       <c r="G2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="H2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="I2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="J2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="K2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="L2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="M2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="N2" t="n">
         <v>686074.609736506</v>
-      </c>
-      <c r="H2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="I2" t="n">
-        <v>686074.609736506</v>
-      </c>
-      <c r="J2" t="n">
-        <v>686074.6097365059</v>
-      </c>
-      <c r="K2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="L2" t="n">
-        <v>686074.6097365054</v>
-      </c>
-      <c r="M2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="N2" t="n">
-        <v>686074.6097365057</v>
       </c>
       <c r="O2" t="n">
         <v>686074.6097365058</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365058</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911926</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580744</v>
+        <v>390680.0076580811</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606975</v>
+        <v>507909.2320606917</v>
       </c>
       <c r="F3" t="n">
-        <v>1.539821964954548e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.1544191141</v>
+        <v>68999.1544191139</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101655</v>
+        <v>95270.2377910182</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954701</v>
+        <v>132717.9756954686</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>251227.3656190198</v>
+        <v>251227.3656190199</v>
       </c>
       <c r="C4" t="n">
         <v>251227.3656190198</v>
       </c>
       <c r="D4" t="n">
-        <v>140465.251750113</v>
+        <v>140465.2517501112</v>
       </c>
       <c r="E4" t="n">
+        <v>11167.03225179352</v>
+      </c>
+      <c r="F4" t="n">
         <v>11167.03225179351</v>
       </c>
-      <c r="F4" t="n">
-        <v>11167.03225179346</v>
-      </c>
       <c r="G4" t="n">
-        <v>11167.03225179346</v>
+        <v>11167.0322517935</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179346</v>
+        <v>11167.0322517935</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179347</v>
+        <v>11167.0322517935</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179347</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="K4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
+        <v>11167.03225179346</v>
+      </c>
+      <c r="M4" t="n">
         <v>11167.03225179348</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>11167.03225179349</v>
       </c>
-      <c r="N4" t="n">
-        <v>11167.03225179343</v>
-      </c>
       <c r="O4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.0322517935</v>
       </c>
       <c r="P4" t="n">
-        <v>11167.03225179348</v>
+        <v>11167.03225179353</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.80320426617</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567861</v>
+        <v>92902.86757567912</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-296477.6450298382</v>
+        <v>-296477.6450298377</v>
       </c>
       <c r="C6" t="n">
-        <v>383610.3355613547</v>
+        <v>383610.3355613548</v>
       </c>
       <c r="D6" t="n">
-        <v>73837.3774007747</v>
+        <v>73837.37740076953</v>
       </c>
       <c r="E6" t="n">
-        <v>65875.81560010729</v>
+        <v>65841.07767467752</v>
       </c>
       <c r="F6" t="n">
-        <v>573785.0476608048</v>
+        <v>573750.3097353692</v>
       </c>
       <c r="G6" t="n">
-        <v>573785.0476608055</v>
+        <v>573750.3097353691</v>
       </c>
       <c r="H6" t="n">
-        <v>573785.0476608051</v>
+        <v>573750.3097353696</v>
       </c>
       <c r="I6" t="n">
-        <v>573785.0476608055</v>
+        <v>573750.3097353694</v>
       </c>
       <c r="J6" t="n">
-        <v>504785.8932416912</v>
+        <v>504751.1553162555</v>
       </c>
       <c r="K6" t="n">
-        <v>573785.0476608049</v>
+        <v>573750.3097353696</v>
       </c>
       <c r="L6" t="n">
-        <v>478514.8098697883</v>
+        <v>478480.0719443512</v>
       </c>
       <c r="M6" t="n">
-        <v>441067.071965335</v>
+        <v>441032.3340399008</v>
       </c>
       <c r="N6" t="n">
-        <v>573785.0476608051</v>
+        <v>573750.3097353696</v>
       </c>
       <c r="O6" t="n">
-        <v>573785.0476608051</v>
+        <v>573750.3097353694</v>
       </c>
       <c r="P6" t="n">
-        <v>573785.0476608053</v>
+        <v>573750.3097353695</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.055013769478</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.055013769478</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627793</v>
+        <v>933.7024595627844</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015058</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856912</v>
+        <v>640.1406900856978</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26829,7 +26829,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-3.016897076984856e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,25 +26957,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.055013769478</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933009</v>
+        <v>319.6474457933064</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788945</v>
+        <v>434.2730407788896</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015058</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841851</v>
+        <v>376.4268100841917</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139572</v>
+        <v>532.5675980139508</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015055</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841855</v>
+        <v>376.4268100841919</v>
       </c>
       <c r="M4" t="n">
-        <v>532.567598013957</v>
+        <v>532.5675980139508</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015058</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841851</v>
+        <v>376.4268100841917</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139572</v>
+        <v>532.5675980139508</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619743</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>90.9691616191767</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>289.9034797832819</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442038</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>54.5609358576944</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862911</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27467,16 +27467,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>142.1932586187007</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,16 +27503,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527771</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,10 +27521,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1.802263929010422</v>
       </c>
     </row>
     <row r="4">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888212</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117168</v>
       </c>
       <c r="V4" t="n">
-        <v>249.6004130142909</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508475</v>
+        <v>26.28664105413867</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>352.1594676106158</v>
+        <v>105.6401949994331</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>149.1202946442039</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>50.47975262776184</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545475</v>
       </c>
     </row>
     <row r="6">
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>89.43925283244592</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27707,13 +27707,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527771</v>
       </c>
       <c r="S6" t="n">
-        <v>51.60059374011314</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27758,10 +27758,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>63.00172017663371</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27792,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888212</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>61.73429993081389</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117141</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27856,22 +27856,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>100.2387966678529</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203006</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465091</v>
+        <v>65.76608425465011</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.485417134841</v>
+        <v>123.4854171348405</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646899</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>108.6067276056121</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27941,13 +27941,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1.776449164522489</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1.776449164549035</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -28017,19 +28017,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430997</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>54.37201197474547</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503844</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103388</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>179.0244917792299</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28536,7 +28536,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-9.092207747706317e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29752,16 +29752,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>-1.607718096583367e-12</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29812,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>-5.027903299158544e-13</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-5.027903299158544e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30763,7 +30763,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="45">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425035</v>
       </c>
       <c r="H2" t="n">
-        <v>25.28116948649916</v>
+        <v>25.28116948649915</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.16927002350877</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016251</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167916</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.458039945929</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.471844198683</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R2" t="n">
-        <v>155.0658623465206</v>
+        <v>155.0658623465205</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702305</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990946</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458303</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N3" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542724</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5986520825179</v>
+        <v>168.5986520825178</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736542</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944812</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020919</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582785</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244973</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779065</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M4" t="n">
-        <v>173.576239384051</v>
+        <v>173.5762393840509</v>
       </c>
       <c r="N4" t="n">
-        <v>169.4489843734694</v>
+        <v>169.4489843734693</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919118</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350553</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715649</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339134</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425035</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649916</v>
+        <v>25.28116948649915</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.16927002350877</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016251</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167916</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.458039945929</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.471844198683</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465206</v>
+        <v>155.0658623465205</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702305</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990946</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458303</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N6" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542724</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825179</v>
+        <v>168.5986520825178</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736542</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944812</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020919</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582785</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244973</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779065</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M7" t="n">
-        <v>173.576239384051</v>
+        <v>173.5762393840509</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734694</v>
+        <v>169.4489843734693</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919118</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350553</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715649</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339134</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885542</v>
+        <v>3.753577726885562</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546656</v>
+        <v>38.44132789546678</v>
       </c>
       <c r="I8" t="n">
-        <v>144.709805315755</v>
+        <v>144.7098053157558</v>
       </c>
       <c r="J8" t="n">
-        <v>318.580217597252</v>
+        <v>318.5802175972538</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763171</v>
+        <v>477.4691627763198</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354907</v>
+        <v>592.3427171354939</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359913</v>
+        <v>659.095405035995</v>
       </c>
       <c r="N8" t="n">
-        <v>669.760257752505</v>
+        <v>669.7602577525087</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307869</v>
+        <v>632.4356192307903</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690982999</v>
+        <v>539.7691690983029</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542114</v>
+        <v>405.3441667542136</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864741</v>
+        <v>235.7856768864754</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140437</v>
+        <v>85.53465245140484</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944147</v>
+        <v>16.43128649944156</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508433</v>
+        <v>0.3002862181508449</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436922</v>
+        <v>2.008341139436932</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035132</v>
+        <v>19.39634732035143</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026243</v>
+        <v>69.14683309026282</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079418</v>
+        <v>189.7441951079429</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502155</v>
+        <v>324.3030514502173</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571263</v>
+        <v>436.0654741571287</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617146</v>
+        <v>508.8678404617174</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152194</v>
+        <v>522.3360580152222</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519065</v>
+        <v>477.8354464519091</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947574</v>
+        <v>383.5050724947595</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463691</v>
+        <v>256.3629847463706</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204784</v>
+        <v>124.6933209204791</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366384</v>
+        <v>37.30405581366405</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133904</v>
+        <v>8.095024154133949</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419028</v>
+        <v>0.1321277065419035</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752553</v>
+        <v>1.683725746752562</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254839998</v>
+        <v>14.96985254840006</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415859</v>
+        <v>50.63422518415887</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954055</v>
+        <v>119.0394102954061</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772511</v>
+        <v>195.6183185772522</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490114</v>
+        <v>250.3240987490127</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023115</v>
+        <v>263.9316641023129</v>
       </c>
       <c r="N10" t="n">
-        <v>257.655959046234</v>
+        <v>257.6559590462354</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046245</v>
+        <v>237.9869810046258</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708723</v>
+        <v>203.6389757708734</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939797</v>
+        <v>140.9890713939804</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307384</v>
+        <v>75.70643221307427</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658765</v>
+        <v>29.34274778658782</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942722</v>
+        <v>7.194100917942762</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650298</v>
+        <v>0.09183958618650348</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>552.0015769888923</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,10 +32072,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>170.9292585737925</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
@@ -32084,22 +32084,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>506.566534435233</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,37 +32309,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>312.3207226334968</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32546,13 +32546,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>172.7144981745674</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32786,19 +32786,19 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>146.0225991093084</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437244</v>
@@ -32810,7 +32810,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33026,25 +33026,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>746.4857620875795</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33260,31 +33260,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>391.6051949514474</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33497,19 +33497,19 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>579.5299594447131</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437244</v>
@@ -33734,31 +33734,31 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>302.9675447508045</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33974,13 +33974,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>229.6463482471735</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
@@ -33992,10 +33992,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34138,7 +34138,7 @@
         <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159428</v>
@@ -34208,13 +34208,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963282</v>
+        <v>624.2063432190395</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34451,10 +34451,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>233.9389431948329</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
@@ -34469,7 +34469,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.470283312177</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664455</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468043</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186563</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.058780602092</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.826860744151</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716376</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117347</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127262</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763038</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659561</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>217.4386117456594</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>263.7138800015058</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649633</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966395</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458916</v>
+        <v>213.1601163458915</v>
       </c>
       <c r="N4" t="n">
-        <v>213.581156752698</v>
+        <v>213.5811567526979</v>
       </c>
       <c r="O4" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204533</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496797</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.470283312177</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664455</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468043</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186563</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.058780602092</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.826860744151</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716376</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117347</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763038</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659561</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>197.7888359819418</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877686</v>
+        <v>28.61687799649633</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966405</v>
       </c>
       <c r="L7" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458916</v>
+        <v>213.1601163458915</v>
       </c>
       <c r="N7" t="n">
-        <v>213.581156752698</v>
+        <v>213.5811567526979</v>
       </c>
       <c r="O7" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496797</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705658</v>
+        <v>137.5343130705675</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313366</v>
+        <v>257.3793117313392</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655035</v>
+        <v>356.5763021655067</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087186</v>
+        <v>428.7491718087223</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559141</v>
+        <v>440.3471941559177</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091001</v>
+        <v>402.3374078091035</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430304</v>
+        <v>308.5361733430333</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797619</v>
+        <v>183.0384768797641</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234201</v>
+        <v>20.20013907234329</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127511</v>
+        <v>188.997603781685</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884352</v>
+        <v>186.4616124758583</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772522</v>
+        <v>640.1406900856978</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396963</v>
+        <v>366.7338065396991</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318861</v>
+        <v>390.9943459318889</v>
       </c>
       <c r="O9" t="n">
-        <v>335.239202007462</v>
+        <v>335.2392020074647</v>
       </c>
       <c r="P9" t="n">
-        <v>514.0054125899175</v>
+        <v>285.2145317858194</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603476</v>
+        <v>116.381210660349</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.53548676783593</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873269</v>
+        <v>25.68023017873334</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513682</v>
+        <v>173.3488267513693</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093275</v>
+        <v>277.9141240093289</v>
       </c>
       <c r="M10" t="n">
-        <v>303.515541064152</v>
+        <v>303.5155410641535</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254626</v>
+        <v>301.788131425464</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186642</v>
+        <v>262.5721089186655</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357658</v>
+        <v>200.9175350357669</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228527</v>
+        <v>54.82702814228604</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>418.027169574562</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>44.09163190712581</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35732,22 +35732,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>364.4325005132147</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>174.4792836591378</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>45.87687150790074</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>8.181160134949373</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.48457599928</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394598</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>615.1440500042462</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>253.0508151715732</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396415</v>
       </c>
       <c r="K32" t="n">
         <v>479.4543240367771</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>557.48457599928</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287862</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>91.80490927281451</v>
       </c>
       <c r="L39" t="n">
-        <v>261.348781916454</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
@@ -37640,10 +37640,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193518</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>261.348781916454</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38099,10 +38099,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394598</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
